--- a/biology/Botanique/Piptatherum/Piptatherum.xlsx
+++ b/biology/Botanique/Piptatherum/Piptatherum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piptatherum  est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire des régions subtropicales de l'Ancien Monde et d'Amérique du Nord, qui comprend une trentaine d'espèces.
 Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) de 10 à 140 cm de long, aux inflorescences en panicules. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (4 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (4 juillet 2017) :
 Piptatherum aequiglume (Duthie ex Hook.f.) Roshev.
 Piptatherum alpestre (Grig.) Roshev.
 Piptatherum angustifolium (Regel) Munro ex Boiss.
